--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_1.xlsx
@@ -478,559 +478,559 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_0</t>
+          <t>model_2_1_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7957828605217626</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4287797132300197</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1990301440418459</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4064578996535431</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2260081768035889</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3417434990406036</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07090084254741669</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2142879962921143</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_1</t>
+          <t>model_2_1_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8516026240005055</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4873482302451796</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1992969941134507</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4578718466923936</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1642321646213531</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3067037165164948</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07087722420692444</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1957259178161621</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_7</t>
+          <t>model_2_1_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531883803862178</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06816817240212392</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2736120721364848</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03556301852927579</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1624772250652313</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5574862360954285</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1127385497093201</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3481931388378143</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_10</t>
+          <t>model_2_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8533328247089903</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06015098464090518</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2863602065253494</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02705866347011165</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1623173505067825</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5622826218605042</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1138669848442078</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3512634932994843</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_9</t>
+          <t>model_2_1_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8536804988059274</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0654695693256383</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2876817742611093</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03157201667512477</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.161932572722435</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5591007471084595</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1139839738607407</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3496340215206146</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_21</t>
+          <t>model_2_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8536909196084661</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06004136605177457</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2832392298122381</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02732305342294494</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.161921039223671</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5623482465744019</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1135907247662544</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3511680066585541</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_8</t>
+          <t>model_2_1_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8537066515299476</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07014552024564358</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2904227456263053</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03535838096628297</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1619036346673965</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5563032627105713</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1142266020178795</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I8" t="n">
-        <v>0.348266988992691</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_22</t>
+          <t>model_2_1_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8537344557583303</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06049375554240921</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2832214065865997</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02772162758590402</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1618728637695312</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5620776414871216</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1135891452431679</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3510241210460663</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_24</t>
+          <t>model_2_1_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.853754260856955</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06035844868651141</v>
+        <v>-0.7474321138812963</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2810310929654609</v>
+        <v>-0.3349434179765798</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02785541934465274</v>
+        <v>-0.4304380836533312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1618509292602539</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5621585249900818</v>
+        <v>1.724909663200378</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1133952587842941</v>
+        <v>0.2921002507209778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3509758114814758</v>
+        <v>1.050646305084229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_23</t>
+          <t>model_2_1_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8537592152432019</v>
+        <v>0.00050779844049198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06071501068380858</v>
+        <v>-0.7350279223295109</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2829917382021681</v>
+        <v>-0.3360459470563311</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02794196124171211</v>
+        <v>-0.4217685356563776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1618454605340958</v>
+        <v>1.106143355369568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5619451999664307</v>
+        <v>1.712665200233459</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1135688126087189</v>
+        <v>0.2923415303230286</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3509445786476135</v>
+        <v>1.044278621673584</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_18</t>
+          <t>model_2_1_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8538686912472755</v>
+        <v>0.005154245936211277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06082152105037686</v>
+        <v>-0.7023587301430967</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2706889473986884</v>
+        <v>-0.3372641131688383</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02945551269898061</v>
+        <v>-0.398693882342235</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1617242991924286</v>
+        <v>1.101001143455505</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5618815422058105</v>
+        <v>1.68041729927063</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1124797910451889</v>
+        <v>0.2926080524921417</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3503981530666351</v>
+        <v>1.02733051776886</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_19</t>
+          <t>model_2_1_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8539325429224198</v>
+        <v>0.01200897260509437</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06161950299537622</v>
+        <v>-0.6555721394099363</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2722667702387012</v>
+        <v>-0.3316818994708288</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02997297717143477</v>
+        <v>-0.3646215163961446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1616536378860474</v>
+        <v>1.093415021896362</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5614041090011597</v>
+        <v>1.634233593940735</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1126194596290588</v>
+        <v>0.291386604309082</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3502113223075867</v>
+        <v>1.002304553985596</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_14</t>
+          <t>model_2_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.85394060873704</v>
+        <v>0.02185473053607989</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06197878510091237</v>
+        <v>-0.583969304067768</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2645139041415661</v>
+        <v>-0.3451896564012702</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03118284956152717</v>
+        <v>-0.3155718632502991</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1616446971893311</v>
+        <v>1.082518577575684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5611891746520996</v>
+        <v>1.56355357170105</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1119331866502762</v>
+        <v>0.2943422496318817</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3497745394706726</v>
+        <v>0.966278076171875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_13</t>
+          <t>model_2_1_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.854010204847334</v>
+        <v>0.03205623498687216</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06274282203663306</v>
+        <v>-0.5101413073049703</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.263904043329299</v>
+        <v>-0.3567383664693902</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03192372494446394</v>
+        <v>-0.2646623515686446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1615676879882812</v>
+        <v>1.071228504180908</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5607320666313171</v>
+        <v>1.490677237510681</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1118791997432709</v>
+        <v>0.2968692481517792</v>
       </c>
       <c r="I15" t="n">
-        <v>0.349507063627243</v>
+        <v>0.928885281085968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_20</t>
+          <t>model_2_1_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8540137002636107</v>
+        <v>0.04026240634942013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06228003034270735</v>
+        <v>-0.4474204908867878</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2709626466369315</v>
+        <v>-0.3773006108488905</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03070252878485125</v>
+        <v>-0.2229190227406044</v>
       </c>
       <c r="F16" t="n">
-        <v>0.161563828587532</v>
+        <v>1.062146663665771</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5610089302062988</v>
+        <v>1.428764820098877</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1125040203332901</v>
+        <v>0.3013684749603271</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3499479293823242</v>
+        <v>0.8982251286506653</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_17</t>
+          <t>model_2_1_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8540196285787518</v>
+        <v>0.048029950845634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06259558725422532</v>
+        <v>-0.3920016527940344</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2691445641902273</v>
+        <v>-0.3783740414318884</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03118979386729903</v>
+        <v>-0.1836393131046228</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1615572720766068</v>
+        <v>1.053550362586975</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5608201622962952</v>
+        <v>1.374060273170471</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1123430877923965</v>
+        <v>0.301603376865387</v>
       </c>
       <c r="I17" t="n">
-        <v>0.349772036075592</v>
+        <v>0.8693745136260986</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_16</t>
+          <t>model_2_1_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8540617306053229</v>
+        <v>0.05832945701982994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06249612452140818</v>
+        <v>-0.321727537121409</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2626524983911169</v>
+        <v>-0.3660651061498115</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03185181314461727</v>
+        <v>-0.1319135468521053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1615106761455536</v>
+        <v>1.042151808738708</v>
       </c>
       <c r="G18" t="n">
-        <v>0.560879647731781</v>
+        <v>1.304691910743713</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1117684096097946</v>
+        <v>0.2989100515842438</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3495329916477203</v>
+        <v>0.8313822746276855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_15</t>
+          <t>model_2_1_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8541773592733608</v>
+        <v>0.07040874821892629</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06411577268204893</v>
+        <v>-0.2364966727899993</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2630988901501141</v>
+        <v>-0.3666171432725018</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03322051577856899</v>
+        <v>-0.07134897579323285</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1613826900720596</v>
+        <v>1.028783559799194</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5599106550216675</v>
+        <v>1.220559597015381</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1118079274892807</v>
+        <v>0.2990308403968811</v>
       </c>
       <c r="I19" t="n">
-        <v>0.34903883934021</v>
+        <v>0.7868980765342712</v>
       </c>
     </row>
     <row r="20">
@@ -1040,121 +1040,121 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8542101809029297</v>
+        <v>0.106608855335275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08109480739726893</v>
+        <v>0.01530364515557137</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2814647146293852</v>
+        <v>-0.361239307556261</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04599735613042166</v>
+        <v>0.1085584455720723</v>
       </c>
       <c r="F20" t="n">
-        <v>0.161346361041069</v>
+        <v>0.9887207746505737</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5497525930404663</v>
+        <v>0.9720046520233154</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1134336516261101</v>
+        <v>0.2978541254997253</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3444260060787201</v>
+        <v>0.6547573208808899</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_12</t>
+          <t>model_2_1_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.855002836720715</v>
+        <v>0.1069855247848572</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07393565962942272</v>
+        <v>0.01990723719006282</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2597832723975393</v>
+        <v>-0.3667089802721606</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04221881160526197</v>
+        <v>0.1110615562125522</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1604691296815872</v>
+        <v>0.9883038401603699</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5540357232093811</v>
+        <v>0.9674603939056396</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1115144342184067</v>
+        <v>0.2990509271621704</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3457901775836945</v>
+        <v>0.652918815612793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_11</t>
+          <t>model_2_1_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8552340673311095</v>
+        <v>0.1071647629531325</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07616085177406351</v>
+        <v>0.02579804654030382</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2492352685582038</v>
+        <v>-0.3786472967643741</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04538708794174717</v>
+        <v>0.1135814389178836</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1602132320404053</v>
+        <v>0.9881055951118469</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5527044534683228</v>
+        <v>0.9616455435752869</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1105807349085808</v>
+        <v>0.3016631603240967</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3446463346481323</v>
+        <v>0.6510679721832275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_3</t>
+          <t>model_2_1_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.856418950630765</v>
+        <v>0.1081881867968117</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1258167025856503</v>
+        <v>0.04865009374907447</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04464084217785125</v>
+        <v>-0.4456230786323614</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1125570212228836</v>
+        <v>0.1204543361841132</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1589019149541855</v>
+        <v>0.9869728684425354</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5229969024658203</v>
+        <v>0.9390881061553955</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09247029572725296</v>
+        <v>0.3163181841373444</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3203957676887512</v>
+        <v>0.6460198760032654</v>
       </c>
     </row>
     <row r="24">
@@ -1164,90 +1164,90 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8568564635197645</v>
+        <v>0.1094817261893443</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1113420281764791</v>
+        <v>0.03454083708275757</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2579141184477989</v>
+        <v>-0.3550196428073349</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07524999945429423</v>
+        <v>0.1231168375861197</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1584177166223526</v>
+        <v>0.9855413436889648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5316566228866577</v>
+        <v>0.9530154466629028</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1113489791750908</v>
+        <v>0.2964931726455688</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3338648676872253</v>
+        <v>0.6440643668174744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_4</t>
+          <t>model_2_1_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8570596979418251</v>
+        <v>0.110130878546485</v>
       </c>
       <c r="C25" t="n">
-        <v>0.117981271868879</v>
+        <v>0.08345253357714544</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.187054836242915</v>
+        <v>-0.5167593960592196</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08925085662527055</v>
+        <v>0.1352448915017527</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1581927835941315</v>
+        <v>0.9848229289054871</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5276845693588257</v>
+        <v>0.9047340750694275</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1050765961408615</v>
+        <v>0.3318836092948914</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3288100361824036</v>
+        <v>0.6351562738418579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_1_2</t>
+          <t>model_2_1_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8618722960540082</v>
+        <v>0.112277992962789</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2988651382645084</v>
+        <v>0.1197021215827284</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.009787742592242132</v>
+        <v>-0.5793629665148985</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2683914903533313</v>
+        <v>0.1522574885529031</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1528666764497757</v>
+        <v>0.9824467301368713</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4194673299789429</v>
+        <v>0.8689517974853516</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08938513696193695</v>
+        <v>0.3455819487571716</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2641344964504242</v>
+        <v>0.6226606965065002</v>
       </c>
     </row>
   </sheetData>
